--- a/Data/A股上市公司关系网/关系网[603010.SH].xlsx
+++ b/Data/A股上市公司关系网/关系网[603010.SH].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="929">
   <si>
     <t>万盛股份[603010.SH] - 关系概览图</t>
   </si>
@@ -53,21 +53,45 @@
     <t>供应商</t>
   </si>
   <si>
+    <t>REMYGMBH&amp;CO.KG</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2,261.17</t>
+  </si>
+  <si>
     <t>沙伯基础创新塑料(中国)有限公司</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2014-06-30</t>
-  </si>
-  <si>
     <t>1,909.97</t>
   </si>
   <si>
     <t>苏州诺升功能高分子材料股份有限公司</t>
   </si>
   <si>
+    <t>CHIYOWATSUSHOCORP.,LTD</t>
+  </si>
+  <si>
+    <t>1,681.99</t>
+  </si>
+  <si>
+    <t>GULBRANDSEN CHEMICALS,INC</t>
+  </si>
+  <si>
+    <t>1,468.52</t>
+  </si>
+  <si>
+    <t>QUIMIDROGA,S.A.</t>
+  </si>
+  <si>
+    <t>1,407.24</t>
+  </si>
+  <si>
     <t>应收账款</t>
   </si>
   <si>
@@ -242,24 +266,24 @@
     <t>参控股名称</t>
   </si>
   <si>
+    <t>浙江万盛科技有限公司</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>张家港市大伟助剂有限公司</t>
+  </si>
+  <si>
+    <t>万盛股份(香港)有限公司</t>
+  </si>
+  <si>
     <t>WANSHENG EUROPE B.V.</t>
   </si>
   <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>浙江万盛科技有限公司</t>
-  </si>
-  <si>
-    <t>张家港市大伟助剂有限公司</t>
-  </si>
-  <si>
-    <t>万盛股份(香港)有限公司</t>
-  </si>
-  <si>
     <t>杭州高诚投资管理有限公司</t>
   </si>
   <si>
@@ -1283,6 +1307,225 @@
     <t>1,129,519.62</t>
   </si>
   <si>
+    <t>证监会审批阶段(MA)</t>
+  </si>
+  <si>
+    <t>广东东阳光科技控股股份有限公司</t>
+  </si>
+  <si>
+    <t>600673.SH</t>
+  </si>
+  <si>
+    <t>741,190.35</t>
+  </si>
+  <si>
+    <t>北京光环新网科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300383.SZ</t>
+  </si>
+  <si>
+    <t>407,716.87</t>
+  </si>
+  <si>
+    <t>陕西延长石油化建股份有限公司</t>
+  </si>
+  <si>
+    <t>600248.SH</t>
+  </si>
+  <si>
+    <t>389,391.29</t>
+  </si>
+  <si>
+    <t>天广中茂股份有限公司</t>
+  </si>
+  <si>
+    <t>002509.SZ</t>
+  </si>
+  <si>
+    <t>351,894.23</t>
+  </si>
+  <si>
+    <t>巨人网络集团股份有限公司</t>
+  </si>
+  <si>
+    <t>002558.SZ</t>
+  </si>
+  <si>
+    <t>290,669.45</t>
+  </si>
+  <si>
+    <t>江苏井神盐化股份有限公司</t>
+  </si>
+  <si>
+    <t>603299.SH</t>
+  </si>
+  <si>
+    <t>260,013.76</t>
+  </si>
+  <si>
+    <t>茂业通信网络股份有限公司</t>
+  </si>
+  <si>
+    <t>000889.SZ</t>
+  </si>
+  <si>
+    <t>210,738.51</t>
+  </si>
+  <si>
+    <t>海宁中国皮革城股份有限公司</t>
+  </si>
+  <si>
+    <t>002344.SZ</t>
+  </si>
+  <si>
+    <t>188,437.82</t>
+  </si>
+  <si>
+    <t>博敏电子股份有限公司</t>
+  </si>
+  <si>
+    <t>603936.SH</t>
+  </si>
+  <si>
+    <t>175,987.95</t>
+  </si>
+  <si>
+    <t>深圳麦格米特电气股份有限公司</t>
+  </si>
+  <si>
+    <t>002851.SZ</t>
+  </si>
+  <si>
+    <t>149,444.94</t>
+  </si>
+  <si>
+    <t>云南能源投资股份有限公司</t>
+  </si>
+  <si>
+    <t>002053.SZ</t>
+  </si>
+  <si>
+    <t>144,694.74</t>
+  </si>
+  <si>
+    <t>永清环保股份有限公司</t>
+  </si>
+  <si>
+    <t>300187.SZ</t>
+  </si>
+  <si>
+    <t>122,893.90</t>
+  </si>
+  <si>
+    <t>浙江五洲新春集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603667.SH</t>
+  </si>
+  <si>
+    <t>114,582.16</t>
+  </si>
+  <si>
+    <t>江苏吴江中国东方丝绸市场股份有限公司</t>
+  </si>
+  <si>
+    <t>000301.SZ</t>
+  </si>
+  <si>
+    <t>111,202.35</t>
+  </si>
+  <si>
+    <t>安徽雷鸣科化股份有限公司</t>
+  </si>
+  <si>
+    <t>600985.SH</t>
+  </si>
+  <si>
+    <t>95,650.12</t>
+  </si>
+  <si>
+    <t>中源协和细胞基因工程股份有限公司</t>
+  </si>
+  <si>
+    <t>600645.SH</t>
+  </si>
+  <si>
+    <t>87,091.35</t>
+  </si>
+  <si>
+    <t>北京钢研高纳科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300034.SZ</t>
+  </si>
+  <si>
+    <t>67,491.01</t>
+  </si>
+  <si>
+    <t>广州维力医疗器械股份有限公司</t>
+  </si>
+  <si>
+    <t>603309.SH</t>
+  </si>
+  <si>
+    <t>62,989.49</t>
+  </si>
+  <si>
+    <t>江西国泰民爆集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603977.SH</t>
+  </si>
+  <si>
+    <t>56,530.69</t>
+  </si>
+  <si>
+    <t>中矿资源勘探股份有限公司</t>
+  </si>
+  <si>
+    <t>002738.SZ</t>
+  </si>
+  <si>
+    <t>54,073.82</t>
+  </si>
+  <si>
+    <t>肇庆华锋电子铝箔股份有限公司</t>
+  </si>
+  <si>
+    <t>002806.SZ</t>
+  </si>
+  <si>
+    <t>43,948.41</t>
+  </si>
+  <si>
+    <t>上海沃施园艺股份有限公司</t>
+  </si>
+  <si>
+    <t>300483.SZ</t>
+  </si>
+  <si>
+    <t>38,491.91</t>
+  </si>
+  <si>
+    <t>深圳市盛讯达科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300518.SZ</t>
+  </si>
+  <si>
+    <t>24,326.95</t>
+  </si>
+  <si>
+    <t>罗顿发展股份有限公司</t>
+  </si>
+  <si>
+    <t>600209.SH</t>
+  </si>
+  <si>
+    <t>15,011.10</t>
+  </si>
+  <si>
     <t>苹果</t>
   </si>
   <si>
@@ -1934,6 +2177,15 @@
     <t>48,280,434.16</t>
   </si>
   <si>
+    <t>富士康工业互联网股份有限公司</t>
+  </si>
+  <si>
+    <t>601138.SH</t>
+  </si>
+  <si>
+    <t>35,454,385.10</t>
+  </si>
+  <si>
     <t>中国太平洋保险(集团)股份有限公司</t>
   </si>
   <si>
@@ -2069,13 +2321,106 @@
     <t>20,329,063.43</t>
   </si>
   <si>
-    <t>交通银行股份有限公司</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>19,601,100.00</t>
+    <t>磷化工</t>
+  </si>
+  <si>
+    <t>洛阳栾川钼业集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>2,414,755.78</t>
+  </si>
+  <si>
+    <t>中国宝安集团股份有限公司</t>
+  </si>
+  <si>
+    <t>000009.SZ</t>
+  </si>
+  <si>
+    <t>707,080.24</t>
+  </si>
+  <si>
+    <t>安徽六国化工股份有限公司</t>
+  </si>
+  <si>
+    <t>600470.SH</t>
+  </si>
+  <si>
+    <t>476,555.58</t>
+  </si>
+  <si>
+    <t>四川泸天化股份有限公司</t>
+  </si>
+  <si>
+    <t>000912.SZ</t>
+  </si>
+  <si>
+    <t>373,477.36</t>
+  </si>
+  <si>
+    <t>江苏澄星磷化工股份有限公司</t>
+  </si>
+  <si>
+    <t>600078.SH</t>
+  </si>
+  <si>
+    <t>298,601.94</t>
+  </si>
+  <si>
+    <t>安徽省司尔特肥业股份有限公司</t>
+  </si>
+  <si>
+    <t>002538.SZ</t>
+  </si>
+  <si>
+    <t>260,272.12</t>
+  </si>
+  <si>
+    <t>深圳市芭田生态工程股份有限公司</t>
+  </si>
+  <si>
+    <t>002170.SZ</t>
+  </si>
+  <si>
+    <t>206,684.61</t>
+  </si>
+  <si>
+    <t>贵州川恒化工股份有限公司</t>
+  </si>
+  <si>
+    <t>002895.SZ</t>
+  </si>
+  <si>
+    <t>118,378.04</t>
+  </si>
+  <si>
+    <t>武汉当代明诚文化股份有限公司</t>
+  </si>
+  <si>
+    <t>600136.SH</t>
+  </si>
+  <si>
+    <t>91,193.60</t>
+  </si>
+  <si>
+    <t>昆明川金诺化工股份有限公司</t>
+  </si>
+  <si>
+    <t>300505.SZ</t>
+  </si>
+  <si>
+    <t>79,981.36</t>
+  </si>
+  <si>
+    <t>山东鲁北化工股份有限公司</t>
+  </si>
+  <si>
+    <t>600727.SH</t>
+  </si>
+  <si>
+    <t>60,775.44</t>
   </si>
   <si>
     <t>重组</t>
@@ -2324,318 +2669,6 @@
     <t>706,877.07</t>
   </si>
   <si>
-    <t>磷化工</t>
-  </si>
-  <si>
-    <t>洛阳栾川钼业集团股份有限公司</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>2,414,755.78</t>
-  </si>
-  <si>
-    <t>中国宝安集团股份有限公司</t>
-  </si>
-  <si>
-    <t>000009.SZ</t>
-  </si>
-  <si>
-    <t>707,080.24</t>
-  </si>
-  <si>
-    <t>安徽六国化工股份有限公司</t>
-  </si>
-  <si>
-    <t>600470.SH</t>
-  </si>
-  <si>
-    <t>476,555.58</t>
-  </si>
-  <si>
-    <t>四川泸天化股份有限公司</t>
-  </si>
-  <si>
-    <t>000912.SZ</t>
-  </si>
-  <si>
-    <t>373,477.36</t>
-  </si>
-  <si>
-    <t>江苏澄星磷化工股份有限公司</t>
-  </si>
-  <si>
-    <t>600078.SH</t>
-  </si>
-  <si>
-    <t>298,601.94</t>
-  </si>
-  <si>
-    <t>安徽省司尔特肥业股份有限公司</t>
-  </si>
-  <si>
-    <t>002538.SZ</t>
-  </si>
-  <si>
-    <t>260,272.12</t>
-  </si>
-  <si>
-    <t>深圳市芭田生态工程股份有限公司</t>
-  </si>
-  <si>
-    <t>002170.SZ</t>
-  </si>
-  <si>
-    <t>206,684.61</t>
-  </si>
-  <si>
-    <t>贵州川恒化工股份有限公司</t>
-  </si>
-  <si>
-    <t>002895.SZ</t>
-  </si>
-  <si>
-    <t>118,378.04</t>
-  </si>
-  <si>
-    <t>武汉当代明诚文化股份有限公司</t>
-  </si>
-  <si>
-    <t>600136.SH</t>
-  </si>
-  <si>
-    <t>91,193.60</t>
-  </si>
-  <si>
-    <t>昆明川金诺化工股份有限公司</t>
-  </si>
-  <si>
-    <t>300505.SZ</t>
-  </si>
-  <si>
-    <t>79,981.36</t>
-  </si>
-  <si>
-    <t>山东鲁北化工股份有限公司</t>
-  </si>
-  <si>
-    <t>600727.SH</t>
-  </si>
-  <si>
-    <t>60,775.44</t>
-  </si>
-  <si>
-    <t>证监会审批阶段(MA)</t>
-  </si>
-  <si>
-    <t>天津中环半导体股份有限公司</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>964,418.75</t>
-  </si>
-  <si>
-    <t>广东东阳光科技控股股份有限公司</t>
-  </si>
-  <si>
-    <t>600673.SH</t>
-  </si>
-  <si>
-    <t>741,190.35</t>
-  </si>
-  <si>
-    <t>北京光环新网科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300383.SZ</t>
-  </si>
-  <si>
-    <t>407,716.87</t>
-  </si>
-  <si>
-    <t>陕西延长石油化建股份有限公司</t>
-  </si>
-  <si>
-    <t>600248.SH</t>
-  </si>
-  <si>
-    <t>389,391.29</t>
-  </si>
-  <si>
-    <t>广州普邦园林股份有限公司</t>
-  </si>
-  <si>
-    <t>002663.SZ</t>
-  </si>
-  <si>
-    <t>357,613.95</t>
-  </si>
-  <si>
-    <t>天广中茂股份有限公司</t>
-  </si>
-  <si>
-    <t>002509.SZ</t>
-  </si>
-  <si>
-    <t>351,894.23</t>
-  </si>
-  <si>
-    <t>巨人网络集团股份有限公司</t>
-  </si>
-  <si>
-    <t>002558.SZ</t>
-  </si>
-  <si>
-    <t>290,669.45</t>
-  </si>
-  <si>
-    <t>江苏井神盐化股份有限公司</t>
-  </si>
-  <si>
-    <t>603299.SH</t>
-  </si>
-  <si>
-    <t>260,013.76</t>
-  </si>
-  <si>
-    <t>海宁中国皮革城股份有限公司</t>
-  </si>
-  <si>
-    <t>002344.SZ</t>
-  </si>
-  <si>
-    <t>188,437.82</t>
-  </si>
-  <si>
-    <t>博敏电子股份有限公司</t>
-  </si>
-  <si>
-    <t>603936.SH</t>
-  </si>
-  <si>
-    <t>175,987.95</t>
-  </si>
-  <si>
-    <t>深圳麦格米特电气股份有限公司</t>
-  </si>
-  <si>
-    <t>002851.SZ</t>
-  </si>
-  <si>
-    <t>149,444.94</t>
-  </si>
-  <si>
-    <t>云南能源投资股份有限公司</t>
-  </si>
-  <si>
-    <t>002053.SZ</t>
-  </si>
-  <si>
-    <t>144,694.74</t>
-  </si>
-  <si>
-    <t>永清环保股份有限公司</t>
-  </si>
-  <si>
-    <t>300187.SZ</t>
-  </si>
-  <si>
-    <t>122,893.90</t>
-  </si>
-  <si>
-    <t>江苏吴江中国东方丝绸市场股份有限公司</t>
-  </si>
-  <si>
-    <t>000301.SZ</t>
-  </si>
-  <si>
-    <t>111,202.35</t>
-  </si>
-  <si>
-    <t>安徽雷鸣科化股份有限公司</t>
-  </si>
-  <si>
-    <t>600985.SH</t>
-  </si>
-  <si>
-    <t>95,650.12</t>
-  </si>
-  <si>
-    <t>中源协和细胞基因工程股份有限公司</t>
-  </si>
-  <si>
-    <t>600645.SH</t>
-  </si>
-  <si>
-    <t>87,091.35</t>
-  </si>
-  <si>
-    <t>北京海兰信数据科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300065.SZ</t>
-  </si>
-  <si>
-    <t>80,514.70</t>
-  </si>
-  <si>
-    <t>红相股份有限公司</t>
-  </si>
-  <si>
-    <t>300427.SZ</t>
-  </si>
-  <si>
-    <t>74,386.15</t>
-  </si>
-  <si>
-    <t>北京钢研高纳科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300034.SZ</t>
-  </si>
-  <si>
-    <t>67,491.01</t>
-  </si>
-  <si>
-    <t>中矿资源勘探股份有限公司</t>
-  </si>
-  <si>
-    <t>002738.SZ</t>
-  </si>
-  <si>
-    <t>54,073.82</t>
-  </si>
-  <si>
-    <t>上海沃施园艺股份有限公司</t>
-  </si>
-  <si>
-    <t>300483.SZ</t>
-  </si>
-  <si>
-    <t>38,491.91</t>
-  </si>
-  <si>
-    <t>深圳市盛讯达科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300518.SZ</t>
-  </si>
-  <si>
-    <t>24,326.95</t>
-  </si>
-  <si>
-    <t>罗顿发展股份有限公司</t>
-  </si>
-  <si>
-    <t>600209.SH</t>
-  </si>
-  <si>
-    <t>15,011.10</t>
-  </si>
-  <si>
     <t>万盛股份[603010.SH] - 集团</t>
   </si>
   <si>
@@ -2732,21 +2765,21 @@
     <t>财务总监</t>
   </si>
   <si>
+    <t>高强</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+  </si>
+  <si>
+    <t>龚卫良</t>
+  </si>
+  <si>
+    <t>宋丽娟</t>
+  </si>
+  <si>
     <t>金译平</t>
   </si>
   <si>
-    <t>副总经理</t>
-  </si>
-  <si>
-    <t>高强</t>
-  </si>
-  <si>
-    <t>龚卫良</t>
-  </si>
-  <si>
-    <t>宋丽娟</t>
-  </si>
-  <si>
     <t>法定代表人</t>
   </si>
   <si>
@@ -2765,13 +2798,13 @@
     <t>2015-08-03</t>
   </si>
   <si>
+    <t>周恭喜</t>
+  </si>
+  <si>
     <t>陶光撑</t>
   </si>
   <si>
     <t>2015-05-26</t>
-  </si>
-  <si>
-    <t>周恭喜</t>
   </si>
 </sst>
 </file>
@@ -3547,12 +3580,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3569,143 +3602,143 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>885</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>878</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -3722,160 +3755,160 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>897</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>885</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -3892,70 +3925,70 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +3998,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="下游"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4057,118 +4090,198 @@
         <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15">
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15">
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15">
         <v/>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>22</v>
+      <c r="F16" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -4190,12 +4303,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -4212,7 +4325,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -4224,29 +4337,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -4263,7 +4376,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -4275,12 +4388,12 @@
         <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -4289,27 +4402,27 @@
         <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4334,12 +4447,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -4373,7 +4486,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -4382,24 +4495,24 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>3</v>
@@ -4407,16 +4520,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -4424,16 +4537,16 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>3</v>
@@ -4441,24 +4554,24 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -4492,7 +4605,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
@@ -4501,24 +4614,24 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>3</v>
@@ -4526,16 +4639,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>3</v>
@@ -4543,16 +4656,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>3</v>
@@ -4560,7 +4673,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -4600,47 +4713,47 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -4680,7 +4793,7 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -4689,27 +4802,27 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>3</v>
@@ -4720,16 +4833,16 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>3</v>
@@ -4767,12 +4880,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4925,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -4821,27 +4934,27 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>3</v>
@@ -4852,16 +4965,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -4872,16 +4985,16 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>3</v>
@@ -4892,16 +5005,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>3</v>
@@ -4912,16 +5025,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>3</v>
@@ -4932,16 +5045,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>3</v>
@@ -4952,16 +5065,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -4972,7 +5085,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -5012,39 +5125,39 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>3</v>
@@ -5052,19 +5165,19 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>3</v>
@@ -5096,12 +5209,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5135,36 +5248,36 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -5178,10 +5291,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -5195,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -5212,10 +5325,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -5229,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E10" s="15">
         <v/>
@@ -5246,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>3</v>
@@ -5263,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -5271,16 +5384,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E13" s="15">
         <v/>
@@ -5297,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>3</v>
@@ -5314,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>3</v>
@@ -5331,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>3</v>
@@ -5348,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>3</v>
@@ -5365,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>3</v>
@@ -5382,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>3</v>
@@ -5390,13 +5503,13 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>3</v>
@@ -5428,12 +5541,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5444,348 +5557,348 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -5796,348 +5909,348 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>3</v>
@@ -6148,348 +6261,348 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="11" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="11" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="11" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>3</v>
@@ -6500,343 +6613,343 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="11" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="11" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="11" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="11" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6959,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="概念"/>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6858,12 +6971,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -6874,348 +6987,348 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -7226,1982 +7339,1971 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>426</v>
+        <v>188</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>427</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="11" t="s">
+    <row r="70">
+      <c r="A70" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="C73" s="14" t="s">
         <v>517</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="C74" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="C75" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C76" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="C77" s="14" t="s">
         <v>529</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="C78" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="C79" s="14" t="s">
         <v>535</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="14" t="s">
         <v>541</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="C82" s="14" t="s">
         <v>544</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="C83" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="14" t="s">
         <v>550</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="14" t="s">
         <v>553</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="C86" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="C87" s="14" t="s">
         <v>559</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="C88" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="C89" s="14" t="s">
         <v>565</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="C90" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="C91" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="C92" s="14" t="s">
         <v>574</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="14" t="s">
         <v>577</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="14" t="s">
         <v>580</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C95" s="14" t="s">
         <v>583</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="C96" s="14" t="s">
         <v>586</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="C97" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="C98" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C98" s="14" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="B100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B102" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="103">
-      <c r="A103" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>130</v>
+      <c r="A103" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>36</v>
+        <v>612</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>37</v>
+        <v>613</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>617</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>623</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>629</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>632</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>635</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>638</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="11" t="s">
-        <v>340</v>
+        <v>639</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>342</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="B132" s="12" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="B133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="s">
+      <c r="B135" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="C135" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="C133" s="14" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="s">
+      <c r="B136" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>130</v>
+      <c r="C136" s="14" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="11" t="s">
-        <v>696</v>
+        <v>44</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="14" t="s">
         <v>697</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="C141" s="14" t="s">
         <v>700</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="11" t="s">
-        <v>164</v>
+        <v>701</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>165</v>
+        <v>702</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>166</v>
+        <v>703</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="11" t="s">
-        <v>170</v>
+        <v>707</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>172</v>
+        <v>709</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="11" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="11" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="11" t="s">
-        <v>397</v>
+        <v>716</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>398</v>
+        <v>717</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>399</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="11" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="11" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="11" t="s">
-        <v>717</v>
+        <v>348</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>718</v>
+        <v>349</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>719</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="11" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="11" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="11" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="11" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="11" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="11" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="11" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="11" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="11" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="11" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="11" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="11" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="11" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="11" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="C166" s="14" t="s">
+      <c r="A166" s="3" t="s">
         <v>767</v>
       </c>
+      <c r="B166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>130</v>
+      <c r="B169" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="11" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="11" t="s">
-        <v>769</v>
+        <v>193</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>770</v>
+        <v>194</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>771</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="11" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="11" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="11" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="11" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="11" t="s">
-        <v>228</v>
+        <v>771</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>229</v>
+        <v>772</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>230</v>
+        <v>773</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="11" t="s">
-        <v>249</v>
+        <v>774</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>250</v>
+        <v>775</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>251</v>
+        <v>776</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="11" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="11" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="11" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="11" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="11" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="11" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="11" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="11" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="C189" s="14" t="s">
+      <c r="A189" s="3" t="s">
         <v>801</v>
       </c>
+      <c r="B189" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>3</v>
+      <c r="B191" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>130</v>
+      <c r="A192" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="11" t="s">
-        <v>346</v>
+        <v>808</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>347</v>
+        <v>809</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>348</v>
+        <v>810</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="11" t="s">
-        <v>355</v>
+        <v>811</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>356</v>
+        <v>812</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>357</v>
+        <v>813</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="11" t="s">
-        <v>373</v>
+        <v>814</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>374</v>
+        <v>815</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>375</v>
+        <v>816</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="11" t="s">
-        <v>394</v>
+        <v>817</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>395</v>
+        <v>818</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>396</v>
+        <v>819</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="11" t="s">
-        <v>403</v>
+        <v>178</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>404</v>
+        <v>179</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>405</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="11" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="11" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="11" t="s">
-        <v>809</v>
+        <v>405</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>810</v>
+        <v>406</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>811</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="11" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="11" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="11" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="11" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="11" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="11" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="11" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="11" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="11" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="11" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="11" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="11" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="11" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="11" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="11" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="11" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="11" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="11" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="11" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -9222,12 +9324,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -9235,26 +9337,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
